--- a/project/excel/linkml_pokemon.xlsx
+++ b/project/excel/linkml_pokemon.xlsx
@@ -7,9 +7,41 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Pokemon" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PokemonCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Ability" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BattleItem" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Berry" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="EggGroup" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Colour" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Flavor" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Food" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Game" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Generation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Gym" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="GymLeader" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="HM" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Habitat" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="HoldItem" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Item" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Pokedex" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Pokemon" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="PokedexEntry" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Pokeball" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Place" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Shape" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Region" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Species" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Move" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="MoveLearning" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="LearningByLevelingUp" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="LearningThroughBreeding" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Medicine" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="SpecialMove" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="PhysicalMove" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="StatusMove" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="TM" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Town" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Trainer" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Type" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,32 +447,194 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -451,57 +645,194 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vital_status</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -519,15 +850,223 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>entries</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>